--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nts-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nts-Sort1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.747141666666667</v>
+        <v>1.441147</v>
       </c>
       <c r="H2">
-        <v>5.241425</v>
+        <v>4.323441</v>
       </c>
       <c r="I2">
-        <v>0.9598684458717283</v>
+        <v>0.9326218691433955</v>
       </c>
       <c r="J2">
-        <v>0.9598684458717284</v>
+        <v>0.9326218691433956</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.72097</v>
+        <v>0.6574793333333333</v>
       </c>
       <c r="N2">
-        <v>2.16291</v>
+        <v>1.972438</v>
       </c>
       <c r="O2">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670402</v>
       </c>
       <c r="P2">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670403</v>
       </c>
       <c r="Q2">
-        <v>1.259636727416667</v>
+        <v>0.9475243687953333</v>
       </c>
       <c r="R2">
-        <v>11.33673054675</v>
+        <v>8.527719319157999</v>
       </c>
       <c r="S2">
-        <v>0.03185124843447171</v>
+        <v>0.03949134279431326</v>
       </c>
       <c r="T2">
-        <v>0.03185124843447171</v>
+        <v>0.03949134279431327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.747141666666667</v>
+        <v>1.441147</v>
       </c>
       <c r="H3">
-        <v>5.241425</v>
+        <v>4.323441</v>
       </c>
       <c r="I3">
-        <v>0.9598684458717283</v>
+        <v>0.9326218691433955</v>
       </c>
       <c r="J3">
-        <v>0.9598684458717284</v>
+        <v>0.9326218691433956</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.554173</v>
       </c>
       <c r="O3">
-        <v>0.08521100719479757</v>
+        <v>0.1192373589365509</v>
       </c>
       <c r="P3">
-        <v>0.08521100719479757</v>
+        <v>0.119237358936551</v>
       </c>
       <c r="Q3">
-        <v>3.234642357391667</v>
+        <v>2.668126585477</v>
       </c>
       <c r="R3">
-        <v>29.111781216525</v>
+        <v>24.013139269293</v>
       </c>
       <c r="S3">
-        <v>0.081791357047235</v>
+        <v>0.1112033685631281</v>
       </c>
       <c r="T3">
-        <v>0.08179135704723502</v>
+        <v>0.1112033685631281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.747141666666667</v>
+        <v>1.441147</v>
       </c>
       <c r="H4">
-        <v>5.241425</v>
+        <v>4.323441</v>
       </c>
       <c r="I4">
-        <v>0.9598684458717283</v>
+        <v>0.9326218691433955</v>
       </c>
       <c r="J4">
-        <v>0.9598684458717284</v>
+        <v>0.9326218691433956</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.824443666666667</v>
+        <v>5.370269333333333</v>
       </c>
       <c r="N4">
-        <v>26.473331</v>
+        <v>16.110808</v>
       </c>
       <c r="O4">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="P4">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="Q4">
-        <v>15.41755321518611</v>
+        <v>7.739347538925332</v>
       </c>
       <c r="R4">
-        <v>138.757978936675</v>
+        <v>69.654127850328</v>
       </c>
       <c r="S4">
-        <v>0.3898491581106017</v>
+        <v>0.3225639748480634</v>
       </c>
       <c r="T4">
-        <v>0.3898491581106017</v>
+        <v>0.3225639748480634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.747141666666667</v>
+        <v>1.441147</v>
       </c>
       <c r="H5">
-        <v>5.241425</v>
+        <v>4.323441</v>
       </c>
       <c r="I5">
-        <v>0.9598684458717283</v>
+        <v>0.9326218691433955</v>
       </c>
       <c r="J5">
-        <v>0.9598684458717284</v>
+        <v>0.9326218691433956</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.710155</v>
+        <v>1.801189666666667</v>
       </c>
       <c r="N5">
-        <v>5.130465</v>
+        <v>5.403569</v>
       </c>
       <c r="O5">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="P5">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="Q5">
-        <v>2.987883056958333</v>
+        <v>2.595779084547666</v>
       </c>
       <c r="R5">
-        <v>26.890947512625</v>
+        <v>23.362011760929</v>
       </c>
       <c r="S5">
-        <v>0.07555178685167756</v>
+        <v>0.108188037186327</v>
       </c>
       <c r="T5">
-        <v>0.07555178685167757</v>
+        <v>0.1081880371863271</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.747141666666667</v>
+        <v>1.441147</v>
       </c>
       <c r="H6">
-        <v>5.241425</v>
+        <v>4.323441</v>
       </c>
       <c r="I6">
-        <v>0.9598684458717283</v>
+        <v>0.9326218691433955</v>
       </c>
       <c r="J6">
-        <v>0.9598684458717284</v>
+        <v>0.9326218691433956</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.620174666666667</v>
+        <v>5.846608</v>
       </c>
       <c r="N6">
-        <v>25.860524</v>
+        <v>17.539824</v>
       </c>
       <c r="O6">
-        <v>0.3967469678429597</v>
+        <v>0.3765461194622369</v>
       </c>
       <c r="P6">
-        <v>0.3967469678429598</v>
+        <v>0.376546119462237</v>
       </c>
       <c r="Q6">
-        <v>15.06066633407778</v>
+        <v>8.425821579375999</v>
       </c>
       <c r="R6">
-        <v>135.5459970067</v>
+        <v>75.832394214384</v>
       </c>
       <c r="S6">
-        <v>0.3808248954277423</v>
+        <v>0.3511751457515637</v>
       </c>
       <c r="T6">
-        <v>0.3808248954277424</v>
+        <v>0.3511751457515638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.07304699999999999</v>
+        <v>0.104117</v>
       </c>
       <c r="H7">
-        <v>0.219141</v>
+        <v>0.312351</v>
       </c>
       <c r="I7">
-        <v>0.04013155412827168</v>
+        <v>0.06737813085660443</v>
       </c>
       <c r="J7">
-        <v>0.04013155412827168</v>
+        <v>0.06737813085660445</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.72097</v>
+        <v>0.6574793333333333</v>
       </c>
       <c r="N7">
-        <v>2.16291</v>
+        <v>1.972438</v>
       </c>
       <c r="O7">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670402</v>
       </c>
       <c r="P7">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670403</v>
       </c>
       <c r="Q7">
-        <v>0.05266469558999999</v>
+        <v>0.06845477574866667</v>
       </c>
       <c r="R7">
-        <v>0.47398226031</v>
+        <v>0.616092981738</v>
       </c>
       <c r="S7">
-        <v>0.001331682592649626</v>
+        <v>0.002853088642390758</v>
       </c>
       <c r="T7">
-        <v>0.001331682592649626</v>
+        <v>0.002853088642390759</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.07304699999999999</v>
+        <v>0.104117</v>
       </c>
       <c r="H8">
-        <v>0.219141</v>
+        <v>0.312351</v>
       </c>
       <c r="I8">
-        <v>0.04013155412827168</v>
+        <v>0.06737813085660443</v>
       </c>
       <c r="J8">
-        <v>0.04013155412827168</v>
+        <v>0.06737813085660445</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>5.554173</v>
       </c>
       <c r="O8">
-        <v>0.08521100719479757</v>
+        <v>0.1192373589365509</v>
       </c>
       <c r="P8">
-        <v>0.08521100719479757</v>
+        <v>0.119237358936551</v>
       </c>
       <c r="Q8">
-        <v>0.135238558377</v>
+        <v>0.192761276747</v>
       </c>
       <c r="R8">
-        <v>1.217147025393</v>
+        <v>1.734851490723</v>
       </c>
       <c r="S8">
-        <v>0.003419650147562566</v>
+        <v>0.008033990373422843</v>
       </c>
       <c r="T8">
-        <v>0.003419650147562567</v>
+        <v>0.008033990373422844</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.07304699999999999</v>
+        <v>0.104117</v>
       </c>
       <c r="H9">
-        <v>0.219141</v>
+        <v>0.312351</v>
       </c>
       <c r="I9">
-        <v>0.04013155412827168</v>
+        <v>0.06737813085660443</v>
       </c>
       <c r="J9">
-        <v>0.04013155412827168</v>
+        <v>0.06737813085660445</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.824443666666667</v>
+        <v>5.370269333333333</v>
       </c>
       <c r="N9">
-        <v>26.473331</v>
+        <v>16.110808</v>
       </c>
       <c r="O9">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="P9">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="Q9">
-        <v>0.6445991365189999</v>
+        <v>0.5591363321786667</v>
       </c>
       <c r="R9">
-        <v>5.801392228670999</v>
+        <v>5.032226989608</v>
       </c>
       <c r="S9">
-        <v>0.01629937170855547</v>
+        <v>0.02330393316521897</v>
       </c>
       <c r="T9">
-        <v>0.01629937170855547</v>
+        <v>0.02330393316521897</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.07304699999999999</v>
+        <v>0.104117</v>
       </c>
       <c r="H10">
-        <v>0.219141</v>
+        <v>0.312351</v>
       </c>
       <c r="I10">
-        <v>0.04013155412827168</v>
+        <v>0.06737813085660443</v>
       </c>
       <c r="J10">
-        <v>0.04013155412827168</v>
+        <v>0.06737813085660445</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.710155</v>
+        <v>1.801189666666667</v>
       </c>
       <c r="N10">
-        <v>5.130465</v>
+        <v>5.403569</v>
       </c>
       <c r="O10">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="P10">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="Q10">
-        <v>0.124921692285</v>
+        <v>0.1875344645243333</v>
       </c>
       <c r="R10">
-        <v>1.124295230565</v>
+        <v>1.687810180719</v>
       </c>
       <c r="S10">
-        <v>0.003158777264286615</v>
+        <v>0.007816144964898662</v>
       </c>
       <c r="T10">
-        <v>0.003158777264286615</v>
+        <v>0.007816144964898665</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.07304699999999999</v>
+        <v>0.104117</v>
       </c>
       <c r="H11">
-        <v>0.219141</v>
+        <v>0.312351</v>
       </c>
       <c r="I11">
-        <v>0.04013155412827168</v>
+        <v>0.06737813085660443</v>
       </c>
       <c r="J11">
-        <v>0.04013155412827168</v>
+        <v>0.06737813085660445</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.620174666666667</v>
+        <v>5.846608</v>
       </c>
       <c r="N11">
-        <v>25.860524</v>
+        <v>17.539824</v>
       </c>
       <c r="O11">
-        <v>0.3967469678429597</v>
+        <v>0.3765461194622369</v>
       </c>
       <c r="P11">
-        <v>0.3967469678429598</v>
+        <v>0.376546119462237</v>
       </c>
       <c r="Q11">
-        <v>0.6296778988759999</v>
+        <v>0.6087312851359999</v>
       </c>
       <c r="R11">
-        <v>5.667101089884</v>
+        <v>5.478581566223999</v>
       </c>
       <c r="S11">
-        <v>0.0159220724152174</v>
+        <v>0.02537097371067321</v>
       </c>
       <c r="T11">
-        <v>0.0159220724152174</v>
+        <v>0.02537097371067322</v>
       </c>
     </row>
   </sheetData>
